--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_24.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_24.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_9</t>
+          <t>model_1_24_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9922274083553783</v>
+        <v>0.8379659150186789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7982999932476285</v>
+        <v>0.5982583736852291</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7635848167216127</v>
+        <v>0.7085079900185549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9855839268905501</v>
+        <v>0.8097446797060543</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03235362022431709</v>
+        <v>0.3840519948667772</v>
       </c>
       <c r="G2" t="n">
-        <v>1.348768873896241</v>
+        <v>2.686448105016968</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8456434024468444</v>
+        <v>1.042650018025781</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09254927730203452</v>
+        <v>0.5681832919515087</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4113546371088849</v>
+        <v>0.8345059479254059</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1798711211515542</v>
+        <v>0.6197192871508658</v>
       </c>
       <c r="L2" t="n">
-        <v>1.497445865255791</v>
+        <v>0.7793578417275627</v>
       </c>
       <c r="M2" t="n">
-        <v>0.182703911504536</v>
+        <v>0.6294792464314807</v>
       </c>
       <c r="N2" t="n">
-        <v>136.862058712561</v>
+        <v>35.91395466452342</v>
       </c>
       <c r="O2" t="n">
-        <v>278.1972312557774</v>
+        <v>72.87853825274924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_8</t>
+          <t>model_1_24_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9924020827783616</v>
+        <v>0.8371360579755026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7980572676183583</v>
+        <v>0.596971983290665</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7640033968122681</v>
+        <v>0.7083006094888338</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9863630131616361</v>
+        <v>0.8010218929867292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03162653327539462</v>
+        <v>0.386018915918745</v>
       </c>
       <c r="G3" t="n">
-        <v>1.35039198129682</v>
+        <v>2.695050203508701</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8441461657332382</v>
+        <v>1.043391806155979</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08754764677494699</v>
+        <v>0.5942332424365717</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4179484575063648</v>
+        <v>0.8196234208769857</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1778385033545734</v>
+        <v>0.6213042056181054</v>
       </c>
       <c r="L3" t="n">
-        <v>1.486266702184857</v>
+        <v>0.7782278236262163</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1806392820091251</v>
+        <v>0.6310891257802421</v>
       </c>
       <c r="N3" t="n">
-        <v>136.9075177001866</v>
+        <v>35.90373781149434</v>
       </c>
       <c r="O3" t="n">
-        <v>278.242690243403</v>
+        <v>72.86832139972016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_7</t>
+          <t>model_1_24_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9924983173124472</v>
+        <v>0.8358581091729634</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7978895315608272</v>
+        <v>0.5951107177030124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7642826161359659</v>
+        <v>0.7079388585778253</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9868930642368231</v>
+        <v>0.7911136886070149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0312259544581063</v>
+        <v>0.3890479007586282</v>
       </c>
       <c r="G4" t="n">
-        <v>1.351513633085884</v>
+        <v>2.707496495063674</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8431474144024376</v>
+        <v>1.044685768189133</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08414478917501128</v>
+        <v>0.6238233541511694</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4211405149468944</v>
+        <v>0.8079011380292827</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1767086711457768</v>
+        <v>0.6237370445617514</v>
       </c>
       <c r="L4" t="n">
-        <v>1.480107692003379</v>
+        <v>0.7764876380227588</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1794916560724578</v>
+        <v>0.6335602795053037</v>
       </c>
       <c r="N4" t="n">
-        <v>136.9330113126491</v>
+        <v>35.88810560949518</v>
       </c>
       <c r="O4" t="n">
-        <v>278.2681838558655</v>
+        <v>72.85268919772099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_6</t>
+          <t>model_1_24_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9925772279000162</v>
+        <v>0.8304284083998593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7977529731922172</v>
+        <v>0.5890594701267517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7646593589272048</v>
+        <v>0.7046983894103069</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9873739224815956</v>
+        <v>0.7621401938731077</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03089748703068727</v>
+        <v>0.4019173375421341</v>
       </c>
       <c r="G5" t="n">
-        <v>1.352426799525573</v>
+        <v>2.747961215469561</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8417998272829781</v>
+        <v>1.056276738508149</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08105774302169712</v>
+        <v>0.7103505303258846</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4240193134729169</v>
+        <v>0.8139808744130616</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1757768102756654</v>
+        <v>0.6339695083693964</v>
       </c>
       <c r="L5" t="n">
-        <v>1.475057414398961</v>
+        <v>0.769094002927468</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1785451193251612</v>
+        <v>0.643953894389208</v>
       </c>
       <c r="N5" t="n">
-        <v>136.9541608485066</v>
+        <v>35.82301767902419</v>
       </c>
       <c r="O5" t="n">
-        <v>278.289333391723</v>
+        <v>72.78760126725001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_5</t>
+          <t>model_1_24_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9926601919504434</v>
+        <v>0.8288148338931391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7975701112299626</v>
+        <v>0.58856365064394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7650250270854018</v>
+        <v>0.7034475926114558</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9878718227628485</v>
+        <v>0.7505074256556123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03055214695590692</v>
+        <v>0.4057418199542358</v>
       </c>
       <c r="G6" t="n">
-        <v>1.353649598309171</v>
+        <v>2.751276762634163</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8404918534837656</v>
+        <v>1.060750766132273</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07786128925453187</v>
+        <v>0.7450909230261445</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4270031652342276</v>
+        <v>0.8187887144693249</v>
       </c>
       <c r="K6" t="n">
-        <v>0.174791724506359</v>
+        <v>0.6369786652268943</v>
       </c>
       <c r="L6" t="n">
-        <v>1.469747715171621</v>
+        <v>0.7668967950885299</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1775445194397128</v>
+        <v>0.6470104424591583</v>
       </c>
       <c r="N6" t="n">
-        <v>136.9766406380895</v>
+        <v>35.80407646620122</v>
       </c>
       <c r="O6" t="n">
-        <v>278.3118131813059</v>
+        <v>72.76866005442704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_4</t>
+          <t>model_1_24_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9927732927635449</v>
+        <v>0.82861499971478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7973229379312103</v>
+        <v>0.5885071213373276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.765280148663805</v>
+        <v>0.7032827879027581</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9884780597165279</v>
+        <v>0.7491011940912291</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03008136180193884</v>
+        <v>0.4062154654520347</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355302447296055</v>
+        <v>2.751654774367774</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8395792983906167</v>
+        <v>1.06134026301936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07396932841950789</v>
+        <v>0.7492905284735134</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4303675701366326</v>
+        <v>0.8196750008227531</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1734397930174585</v>
+        <v>0.6373503474950294</v>
       </c>
       <c r="L7" t="n">
-        <v>1.462509263133128</v>
+        <v>0.7666246804626792</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1761712963812977</v>
+        <v>0.6473879783514705</v>
       </c>
       <c r="N7" t="n">
-        <v>137.0076990165089</v>
+        <v>35.80174311413931</v>
       </c>
       <c r="O7" t="n">
-        <v>278.3428715597253</v>
+        <v>72.76632670236512</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_3</t>
+          <t>model_1_24_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.992836665409044</v>
+        <v>0.8275631865243934</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7970745550688916</v>
+        <v>0.5881304977302018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7658075624534657</v>
+        <v>0.7024321415541525</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9889224779581247</v>
+        <v>0.7420505818408125</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02981757147319935</v>
+        <v>0.4087084653294477</v>
       </c>
       <c r="G8" t="n">
-        <v>1.356963384640078</v>
+        <v>2.754173258162816</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8376927698462087</v>
+        <v>1.064382975685013</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07111622225340081</v>
+        <v>0.770346654906803</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4344893786719858</v>
+        <v>0.8260391803497273</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1726776519217219</v>
+        <v>0.6393031091191781</v>
       </c>
       <c r="L8" t="n">
-        <v>1.458453413821182</v>
+        <v>0.7651924242034294</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1753971523251649</v>
+        <v>0.6493714940191541</v>
       </c>
       <c r="N8" t="n">
-        <v>137.0253148249849</v>
+        <v>35.78950635161325</v>
       </c>
       <c r="O8" t="n">
-        <v>278.3604873682013</v>
+        <v>72.75408993983908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_2</t>
+          <t>model_1_24_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9929224631570661</v>
+        <v>0.8273680391237881</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7968664930968529</v>
+        <v>0.588095099301938</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7662278070058248</v>
+        <v>0.7022789144904149</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9894396798873334</v>
+        <v>0.7407095116481757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0294604360565295</v>
+        <v>0.409171002261132</v>
       </c>
       <c r="G9" t="n">
-        <v>1.358354696005139</v>
+        <v>2.754409967615611</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8361895794495993</v>
+        <v>1.064931060007386</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06779585446641299</v>
+        <v>0.7743516607884425</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4368428758837852</v>
+        <v>0.8272287782185034</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1716404266381598</v>
+        <v>0.6396647577138607</v>
       </c>
       <c r="L9" t="n">
-        <v>1.452962357947769</v>
+        <v>0.7649266915728179</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1743435917802316</v>
+        <v>0.649738838217687</v>
       </c>
       <c r="N9" t="n">
-        <v>137.0494141328198</v>
+        <v>35.78724422376031</v>
       </c>
       <c r="O9" t="n">
-        <v>278.3845866760362</v>
+        <v>72.75182781198613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_1</t>
+          <t>model_1_24_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.993004932876715</v>
+        <v>0.8271767936742834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.796623088797056</v>
+        <v>0.5880735654227103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7666770412441031</v>
+        <v>0.7021349097364211</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9899471421600761</v>
+        <v>0.7393841608701178</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02911715364681085</v>
+        <v>0.4096242908170549</v>
       </c>
       <c r="G10" t="n">
-        <v>1.359982341678654</v>
+        <v>2.754553964765161</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8345826946273758</v>
+        <v>1.065446156662546</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06453801398212747</v>
+        <v>0.7783097218135112</v>
       </c>
       <c r="J10" t="n">
-        <v>0.438966772146658</v>
+        <v>0.8283729037559033</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1706374919143236</v>
+        <v>0.6400189769194776</v>
       </c>
       <c r="L10" t="n">
-        <v>1.447684295890241</v>
+        <v>0.7646662722373221</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1733248618370619</v>
+        <v>0.6500986360217031</v>
       </c>
       <c r="N10" t="n">
-        <v>137.0728556121526</v>
+        <v>35.78502980652532</v>
       </c>
       <c r="O10" t="n">
-        <v>278.408028155369</v>
+        <v>72.74961339475115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_0</t>
+          <t>model_1_24_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9931030831937551</v>
+        <v>0.8269797703745879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7963005895434467</v>
+        <v>0.5880353490015044</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7671731294670816</v>
+        <v>0.701981199332371</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9905154583155807</v>
+        <v>0.7380561144606481</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02870860033182854</v>
+        <v>0.4100912739909472</v>
       </c>
       <c r="G11" t="n">
-        <v>1.362138895672512</v>
+        <v>2.754809518149735</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8328082158186298</v>
+        <v>1.065995969865192</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06088949964180054</v>
+        <v>0.7822758331402855</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4413347243418055</v>
+        <v>0.8295026681990151</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1694361246364793</v>
+        <v>0.64038369278968</v>
       </c>
       <c r="L11" t="n">
-        <v>1.441402675599676</v>
+        <v>0.7643979851909283</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1721045742255182</v>
+        <v>0.650469095802279</v>
       </c>
       <c r="N11" t="n">
-        <v>137.1011170759533</v>
+        <v>35.78275104913942</v>
       </c>
       <c r="O11" t="n">
-        <v>278.4362896191698</v>
+        <v>72.74733463736524</v>
       </c>
     </row>
   </sheetData>
